--- a/doc/04_外部設計書_C5_マイページ.xlsx
+++ b/doc/04_外部設計書_C5_マイページ.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2C086B4-FB6A-44DB-91EE-542BB481BB12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7947076-DA22-433A-A838-4A95C587C371}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2293,6 +2293,93 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>107022</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>85618</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>117725</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="テキスト ボックス 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AAEA9D1C-6FB4-7D78-C3B1-B50DDA952617}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="107022" y="2975225"/>
+          <a:ext cx="1401995" cy="492303"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>パーソナルデータ</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>過去データ閲覧</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -2619,7 +2706,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{757AF414-5670-452E-A0A5-0434F2424C70}">
   <dimension ref="A1:AN109"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
       <selection activeCell="D87" sqref="D87"/>
     </sheetView>
   </sheetViews>

--- a/doc/04_外部設計書_C5_マイページ.xlsx
+++ b/doc/04_外部設計書_C5_マイページ.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7947076-DA22-433A-A838-4A95C587C371}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B00E34D-3273-48E0-9C0C-9D0719456987}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="94">
   <si>
     <t>画面名</t>
     <rPh sb="0" eb="2">
@@ -870,6 +870,25 @@
   </si>
   <si>
     <t>ideal_avater_button</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>一日一回より多く報告しようとするとエラーメッセージを表示する</t>
+    <rPh sb="0" eb="2">
+      <t>イチニチ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>イッカイ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>オオ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ホウコク</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ヒョウジ</t>
+    </rPh>
     <phoneticPr fontId="4"/>
   </si>
 </sst>
@@ -2154,6 +2173,29 @@
             </a:rPr>
             <a:t>体重を数字で入力してください</a:t>
           </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>※</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>一日一回しか報告できません</a:t>
+          </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -2706,8 +2748,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{757AF414-5670-452E-A0A5-0434F2424C70}">
   <dimension ref="A1:AN109"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
-      <selection activeCell="D87" sqref="D87"/>
+    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
+      <selection activeCell="D58" sqref="D58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -5072,6 +5114,9 @@
     <row r="58" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A58" s="6"/>
       <c r="B58" s="6"/>
+      <c r="D58" s="1" t="s">
+        <v>93</v>
+      </c>
       <c r="V58" s="9"/>
       <c r="W58" s="9"/>
       <c r="X58" s="9"/>

--- a/doc/04_外部設計書_C5_マイページ.xlsx
+++ b/doc/04_外部設計書_C5_マイページ.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B00E34D-3273-48E0-9C0C-9D0719456987}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C17BE48-6BB1-4108-BB9B-D3669EB53E9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="96">
   <si>
     <t>画面名</t>
     <rPh sb="0" eb="2">
@@ -888,6 +888,53 @@
     </rPh>
     <rPh sb="26" eb="28">
       <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>登録画面にて挿入した顔写真を顔のところに表示する。</t>
+    <rPh sb="0" eb="4">
+      <t>トウロクガメン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ソウニュウ</t>
+    </rPh>
+    <rPh sb="10" eb="13">
+      <t>カオジャシン</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>カオ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>顔写真のところを再度クリックすると写真を挿入する場面になって新しい顔写真を挿入できる。</t>
+    <rPh sb="0" eb="3">
+      <t>カオジャシン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>サイド</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>シャシン</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ソウニュウ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>バメン</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>アタラ</t>
+    </rPh>
+    <rPh sb="33" eb="36">
+      <t>カオジャシン</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>ソウニュウ</t>
     </rPh>
     <phoneticPr fontId="4"/>
   </si>
@@ -1429,100 +1476,6 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>276623</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>78979</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>32</xdr:col>
-      <xdr:colOff>160735</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>19844</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="グラフィックス 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{64B2D81D-3AB7-6885-E133-26F6A9E52F08}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:extLst>
-            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1387873" y="1021557"/>
-          <a:ext cx="7662862" cy="4465240"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>69454</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>184150</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>117079</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>165100</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="図 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9916CE47-1279-AB97-C266-7FF8E6DCFBA8}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="69454" y="2257822"/>
-          <a:ext cx="1992313" cy="3374231"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>142875</xdr:colOff>
       <xdr:row>28</xdr:row>
@@ -1548,7 +1501,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1557,59 +1510,6 @@
         <a:xfrm>
           <a:off x="1524000" y="5348936"/>
           <a:ext cx="4914900" cy="1828615"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>142874</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>95249</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="16" name="グラフィックス 15" descr="ビーチ ボール">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3593257F-739A-9333-D108-27C51F1E4F32}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId6"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3228975" y="3952874"/>
-          <a:ext cx="714375" cy="714375"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1666,368 +1566,6 @@
         </a:fontRef>
       </xdr:style>
     </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>93662</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>142873</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>257174</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>95248</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="15" name="グラフィックス 14" descr="ビーチ ボール">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1439D99C-838B-4402-B207-23D9063377E5}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId6"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2038350" y="3913186"/>
-          <a:ext cx="719137" cy="706437"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>57546</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>116679</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>221058</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>69054</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="17" name="グラフィックス 16" descr="ビーチ ボール">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{90D03A10-953D-4A47-9664-FB065CCE0542}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId6"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1446609" y="3886992"/>
-          <a:ext cx="719137" cy="706437"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>49609</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>109141</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>9921</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>138908</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="11" name="正方形/長方形 10">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9CD27341-D0F3-6D54-BCC0-10B2149DAE58}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6439297" y="3313907"/>
-          <a:ext cx="515937" cy="218282"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>今</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>43260</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>102790</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>-1</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>138907</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="18" name="正方形/長方形 17">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B1E70D01-4312-48F3-B3D2-6858AAC92239}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6988573" y="3307556"/>
-          <a:ext cx="512364" cy="224632"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent6"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent6"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>理想</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>158750</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>79375</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>109141</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>29766</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="13" name="正方形/長方形 12">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{11C9F2C1-080F-C77E-F93E-54E093B5F632}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="158750" y="2341563"/>
-          <a:ext cx="506016" cy="515937"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>29766</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>109141</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>148828</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>148828</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="19" name="テキスト ボックス 18">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CD01512-46CC-AE49-FF65-A117D95965F4}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="585391" y="3502422"/>
-          <a:ext cx="1230312" cy="228203"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="tx1"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>ログアウト</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
@@ -2100,109 +1638,6 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>99218</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>59532</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>188515</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>128984</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="21" name="テキスト ボックス 20">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AA1B81D8-97C1-B661-D561-29D80055EC42}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4266406" y="2887266"/>
-          <a:ext cx="2311797" cy="257968"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="bg1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>※</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>体重を数字で入力してください</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-            <a:solidFill>
-              <a:srgbClr val="FF0000"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>※</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>一日一回しか報告できません</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>19</xdr:col>
       <xdr:colOff>95250</xdr:colOff>
       <xdr:row>13</xdr:row>
@@ -2264,159 +1699,270 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>28</xdr:col>
-      <xdr:colOff>261937</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>83344</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>21405</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>32107</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>31</xdr:col>
-      <xdr:colOff>202406</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>128427</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>80267</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="23" name="テキスト ボックス 22">
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="グラフィックス 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3E63F221-0BB8-FDD4-8BB5-4B653385FE5E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1798120C-5CB8-2202-1AC6-2C7FA40A2899}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId3"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7929562" y="4845844"/>
-          <a:ext cx="762000" cy="345281"/>
+          <a:off x="1412697" y="1187950"/>
+          <a:ext cx="7620000" cy="4286250"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
       </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>BMI:25</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>136989</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>132172</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>22689</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>84547</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="16" name="グラフィックス 15" descr="ビーチ ボール">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3593257F-739A-9333-D108-27C51F1E4F32}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId5"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3197832" y="3984981"/>
+          <a:ext cx="720475" cy="722937"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>93662</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>142873</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>257174</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>95248</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="15" name="グラフィックス 14" descr="ビーチ ボール">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1439D99C-838B-4402-B207-23D9063377E5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId5"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2038350" y="3913186"/>
+          <a:ext cx="719137" cy="706437"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>57546</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>116679</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>221058</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>69054</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="17" name="グラフィックス 16" descr="ビーチ ボール">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{90D03A10-953D-4A47-9664-FB065CCE0542}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId5"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1446609" y="3886992"/>
+          <a:ext cx="719137" cy="706437"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>107022</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>85618</xdr:rowOff>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>42809</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>107022</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>117725</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>107023</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>10702</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="テキスト ボックス 2">
+        <xdr:cNvPr id="8" name="楕円 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AAEA9D1C-6FB4-7D78-C3B1-B50DDA952617}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D20F51B6-3264-B2DB-3BBA-A3DC4FC1BDDC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
+        <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="107022" y="2975225"/>
-          <a:ext cx="1401995" cy="492303"/>
+          <a:off x="7277528" y="2226067"/>
+          <a:ext cx="898989" cy="866882"/>
         </a:xfrm>
-        <a:prstGeom prst="rect">
+        <a:prstGeom prst="ellipse">
           <a:avLst/>
         </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="tx1"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-        </a:ln>
       </xdr:spPr>
       <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
         </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
         </a:fillRef>
         <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
+          <a:schemeClr val="accent1"/>
         </a:effectRef>
         <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
+          <a:schemeClr val="lt1"/>
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
         <a:lstStyle/>
         <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>パーソナルデータ</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-            <a:solidFill>
-              <a:srgbClr val="FF0000"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>過去データ閲覧</a:t>
-          </a:r>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -2748,8 +2294,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{757AF414-5670-452E-A0A5-0434F2424C70}">
   <dimension ref="A1:AN109"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
-      <selection activeCell="D58" sqref="D58"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
+      <selection activeCell="D65" sqref="D65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -5405,7 +4951,9 @@
       <c r="A65" s="6"/>
       <c r="B65" s="6"/>
       <c r="C65" s="10"/>
-      <c r="D65" s="10"/>
+      <c r="D65" s="10" t="s">
+        <v>94</v>
+      </c>
       <c r="E65" s="9"/>
       <c r="F65" s="9"/>
       <c r="G65" s="9"/>
@@ -5447,7 +4995,9 @@
       <c r="A66" s="6"/>
       <c r="B66" s="6"/>
       <c r="C66" s="10"/>
-      <c r="D66" s="10"/>
+      <c r="D66" s="10" t="s">
+        <v>95</v>
+      </c>
       <c r="E66" s="9"/>
       <c r="F66" s="9"/>
       <c r="G66" s="9"/>
